--- a/winter2020.xlsx
+++ b/winter2020.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="612" yWindow="516" windowWidth="27552" windowHeight="12072"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2020winter" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -681,7 +681,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -746,7 +746,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1090,71 +1090,71 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>4980</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>9882</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>14</v>
-      </c>
       <c r="H2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>8535</v>
+        <v>5280</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1163,949 +1163,949 @@
         <v>4980</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>44167</v>
+        <v>44176</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E5">
-        <v>5280</v>
+        <v>6280</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>7</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>44167</v>
+        <v>44184</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E6">
-        <v>4980</v>
+        <v>6280</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>44168</v>
+        <v>44195</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>10061</v>
+        <v>3280</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>44168</v>
+        <v>44199</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8">
-        <v>4980</v>
+        <v>6980</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>44169</v>
+        <v>44208</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="E9">
-        <v>4980</v>
+        <v>3280</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>44170</v>
+        <v>44209</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="E10">
-        <v>8200</v>
+        <v>4980</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>44171</v>
+        <v>44217</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>7980</v>
+        <v>4980</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>44171</v>
+        <v>44217</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="E12">
         <v>4980</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>44173</v>
+        <v>44219</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E13">
-        <v>5280</v>
+        <v>6280</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>4</v>
       </c>
       <c r="I13">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>44173</v>
+        <v>44220</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E14">
-        <v>29800</v>
+        <v>6280</v>
       </c>
       <c r="F14" t="s">
         <v>46</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>44175</v>
+        <v>44221</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
       </c>
       <c r="E15">
-        <v>4980</v>
+        <v>2980</v>
       </c>
       <c r="F15" t="s">
         <v>43</v>
       </c>
       <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
         <v>7</v>
       </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
       <c r="I15">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>44175</v>
+        <v>44223</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E16">
-        <v>4935</v>
+        <v>10538</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>44175</v>
+        <v>44224</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E17">
-        <v>11800</v>
+        <v>3280</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G17">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I17">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>44176</v>
+        <v>44225</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>6280</v>
+        <v>6980</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>44176</v>
+        <v>44227</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>10086</v>
+        <v>4980</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="G19">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <v>3</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>44177</v>
+        <v>44232</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="E20">
-        <v>5280</v>
+        <v>4980</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>44178</v>
+        <v>44239</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>10234</v>
+        <v>4980</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>44180</v>
+        <v>44245</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="E22">
-        <v>4980</v>
+        <v>11652</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>44180</v>
+        <v>44252</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>211</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="E23">
-        <v>12593</v>
+        <v>3280</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23">
         <v>4</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>44180</v>
+        <v>44252</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24">
-        <v>3980</v>
+        <v>6980</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G24">
         <v>5</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>44181</v>
+        <v>44254</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>5280</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
         <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2980</v>
-      </c>
-      <c r="F25" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25">
-        <v>13</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>44181</v>
+        <v>44255</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>4980</v>
       </c>
       <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>29</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>44181</v>
+        <v>44171</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E27">
-        <v>16800</v>
+        <v>4980</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G27">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>44184</v>
+        <v>44173</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E28">
-        <v>7980</v>
+        <v>5280</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H28">
         <v>4</v>
       </c>
       <c r="I28">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>44184</v>
+        <v>44177</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E29">
-        <v>6280</v>
+        <v>5280</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>44185</v>
+        <v>44189</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E30">
-        <v>6001</v>
+        <v>5280</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>44185</v>
+        <v>44211</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="E31">
-        <v>6800</v>
+        <v>5280</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="G31">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>44185</v>
+        <v>44223</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="E32">
-        <v>2680</v>
+        <v>6280</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="G32">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>44186</v>
+        <v>44224</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="E33">
-        <v>3980</v>
+        <v>6280</v>
       </c>
       <c r="F33" t="s">
         <v>29</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>44186</v>
+        <v>44229</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="E34">
-        <v>7200</v>
+        <v>4980</v>
       </c>
       <c r="F34" t="s">
         <v>43</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>44186</v>
+        <v>44230</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="E35">
-        <v>15000</v>
+        <v>5280</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="G35">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>44188</v>
+        <v>44236</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E36">
-        <v>3267</v>
+        <v>5980</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="G36">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>44189</v>
+        <v>44238</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -2114,7 +2114,7 @@
         <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="E37">
         <v>5280</v>
@@ -2123,120 +2123,120 @@
         <v>15</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>44189</v>
+        <v>44243</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E38">
         <v>5280</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G38">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I38">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>44190</v>
+        <v>44244</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="E39">
-        <v>12877</v>
+        <v>5980</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I39">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>44195</v>
+        <v>44252</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="E40">
-        <v>6800</v>
+        <v>6280</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G40">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I40">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>44195</v>
+        <v>44254</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E41">
-        <v>3280</v>
+        <v>5280</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G41">
         <v>9</v>
@@ -2245,114 +2245,114 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>44197</v>
+        <v>44255</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="E42">
-        <v>8200</v>
+        <v>3965</v>
       </c>
       <c r="F42" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>44199</v>
+        <v>44167</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E43">
-        <v>6800</v>
+        <v>4980</v>
       </c>
       <c r="F43" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="G43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>44199</v>
+        <v>44169</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E44">
-        <v>6980</v>
+        <v>4980</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G44">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>44199</v>
+        <v>44170</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="E45">
-        <v>8371</v>
+        <v>8200</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>7</v>
@@ -2361,584 +2361,584 @@
         <v>2</v>
       </c>
       <c r="I45">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>44201</v>
+        <v>44180</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E46">
-        <v>12189</v>
+        <v>4980</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>44202</v>
+        <v>44186</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="E47">
-        <v>2980</v>
+        <v>15000</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
         <v>4</v>
       </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
       <c r="I47">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>44202</v>
+        <v>44197</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E48">
-        <v>7980</v>
+        <v>8200</v>
       </c>
       <c r="F48" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G48">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>44205</v>
+        <v>44209</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E49">
-        <v>6280</v>
+        <v>6800</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="G49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>44206</v>
+        <v>44211</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="E50">
-        <v>5802</v>
+        <v>8200</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="G50">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>44207</v>
+        <v>44218</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E51">
-        <v>2680</v>
+        <v>4980</v>
       </c>
       <c r="F51" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="G51">
+        <v>7</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
         <v>12</v>
-      </c>
-      <c r="H51">
-        <v>4</v>
-      </c>
-      <c r="I51">
-        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>44208</v>
+        <v>44227</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E52">
-        <v>1980</v>
+        <v>15000</v>
       </c>
       <c r="F52" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G52">
         <v>5</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>44208</v>
+        <v>44227</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="E53">
-        <v>3280</v>
+        <v>6790</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G53">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>44209</v>
+        <v>44241</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="E54">
-        <v>6800</v>
+        <v>3217</v>
       </c>
       <c r="F54" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="G54">
+        <v>12</v>
+      </c>
+      <c r="H54">
         <v>7</v>
       </c>
-      <c r="H54">
-        <v>4</v>
-      </c>
       <c r="I54">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>44209</v>
+        <v>44242</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="E55">
-        <v>7631</v>
+        <v>8287</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G55">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I55">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44209</v>
+        <v>44246</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="E56">
-        <v>4980</v>
+        <v>3980</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G56">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I56">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>44210</v>
+        <v>44250</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="E57">
-        <v>5980</v>
+        <v>4980</v>
       </c>
       <c r="F57" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="G57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H57">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>44211</v>
+        <v>44254</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E58">
-        <v>5280</v>
+        <v>8200</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
         <v>14</v>
-      </c>
-      <c r="H58">
-        <v>3</v>
-      </c>
-      <c r="I58">
-        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44211</v>
+        <v>44255</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="E59">
-        <v>2680</v>
+        <v>4980</v>
       </c>
       <c r="F59" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="G59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H59">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44211</v>
+        <v>44166</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="E60">
-        <v>5980</v>
+        <v>9882</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G60">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I60">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44211</v>
+        <v>44166</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61">
+        <v>8535</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61">
+        <v>13</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
         <v>33</v>
-      </c>
-      <c r="D61" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61">
-        <v>8200</v>
-      </c>
-      <c r="F61" t="s">
-        <v>125</v>
-      </c>
-      <c r="G61">
-        <v>4</v>
-      </c>
-      <c r="H61">
-        <v>4</v>
-      </c>
-      <c r="I61">
-        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44211</v>
+        <v>44168</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="E62">
-        <v>5280</v>
+        <v>10061</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="G62">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I62">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44212</v>
+        <v>44173</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="D63" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="E63">
-        <v>7667</v>
+        <v>29800</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G63">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44212</v>
+        <v>44175</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="E64">
-        <v>3980</v>
+        <v>4980</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H64">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44215</v>
+        <v>44175</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E65">
-        <v>7200</v>
+        <v>11800</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G65">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65">
         <v>8</v>
@@ -2946,840 +2946,840 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44216</v>
+        <v>44180</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E66">
-        <v>3980</v>
+        <v>12593</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G66">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44217</v>
+        <v>44180</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
       </c>
       <c r="E67">
-        <v>4980</v>
+        <v>3980</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G67">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H67">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="E68">
-        <v>8718</v>
+        <v>4980</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G68">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="D69" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="E69">
-        <v>3980</v>
+        <v>16800</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G69">
+        <v>11</v>
+      </c>
+      <c r="H69">
         <v>4</v>
       </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
       <c r="I69">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44217</v>
+        <v>44185</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="E70">
-        <v>4980</v>
+        <v>6001</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="G70">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H70">
         <v>5</v>
       </c>
       <c r="I70">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44218</v>
+        <v>44185</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D71" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="E71">
-        <v>4980</v>
+        <v>6800</v>
       </c>
       <c r="F71" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G71">
+        <v>11</v>
+      </c>
+      <c r="H71">
         <v>7</v>
       </c>
-      <c r="H71">
-        <v>5</v>
-      </c>
       <c r="I71">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44218</v>
+        <v>44186</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D72" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="E72">
-        <v>2680</v>
+        <v>3980</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="G72">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H72">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44218</v>
+        <v>44186</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="D73" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="E73">
-        <v>4071</v>
+        <v>7200</v>
       </c>
       <c r="F73" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="G73">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I73">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44219</v>
+        <v>44188</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D74" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="E74">
-        <v>6280</v>
+        <v>3267</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G74">
         <v>10</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44219</v>
+        <v>44189</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="E75">
-        <v>5980</v>
+        <v>5280</v>
       </c>
       <c r="F75" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H75">
         <v>3</v>
       </c>
       <c r="I75">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44220</v>
+        <v>44190</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="D76" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="E76">
-        <v>6974</v>
+        <v>12877</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G76">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44220</v>
+        <v>44195</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D77" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="E77">
-        <v>6280</v>
+        <v>6800</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G77">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I77">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44221</v>
+        <v>44199</v>
       </c>
       <c r="B78" t="s">
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="E78">
-        <v>11625</v>
+        <v>6800</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="G78">
         <v>8</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44221</v>
+        <v>44199</v>
       </c>
       <c r="B79" t="s">
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D79" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="E79">
-        <v>5980</v>
+        <v>8371</v>
       </c>
       <c r="F79" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H79">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44221</v>
+        <v>44201</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E80">
-        <v>2980</v>
+        <v>12189</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H80">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44222</v>
+        <v>44202</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="D81" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="E81">
-        <v>6811</v>
+        <v>7980</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="G81">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I81">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44223</v>
+        <v>44205</v>
       </c>
       <c r="B82" t="s">
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="D82" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="E82">
-        <v>12141</v>
+        <v>6280</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G82">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I82">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44223</v>
+        <v>44206</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="D83" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="E83">
-        <v>10538</v>
+        <v>5802</v>
       </c>
       <c r="F83" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G83">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H83">
+        <v>6</v>
+      </c>
+      <c r="I83">
         <v>3</v>
-      </c>
-      <c r="I83">
-        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44223</v>
+        <v>44209</v>
       </c>
       <c r="B84" t="s">
         <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D84" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="E84">
-        <v>5980</v>
+        <v>7631</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="G84">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H84">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44223</v>
+        <v>44210</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D85" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="E85">
-        <v>6280</v>
+        <v>5980</v>
       </c>
       <c r="F85" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="G85">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H85">
+        <v>7</v>
+      </c>
+      <c r="I85">
         <v>2</v>
-      </c>
-      <c r="I85">
-        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44224</v>
+        <v>44211</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="D86" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E86">
-        <v>6280</v>
+        <v>5980</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G86">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H86">
         <v>5</v>
       </c>
       <c r="I86">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44224</v>
+        <v>44211</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D87" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E87">
-        <v>7200</v>
+        <v>5280</v>
       </c>
       <c r="F87" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="G87">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44224</v>
+        <v>44212</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="E88">
-        <v>3280</v>
+        <v>7667</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H88">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44225</v>
+        <v>44215</v>
       </c>
       <c r="B89" t="s">
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="D89" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E89">
-        <v>16800</v>
+        <v>7200</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G89">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44225</v>
+        <v>44216</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
       </c>
       <c r="E90">
-        <v>6980</v>
+        <v>3980</v>
       </c>
       <c r="F90" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44226</v>
+        <v>44217</v>
       </c>
       <c r="B91" t="s">
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="D91" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="E91">
-        <v>16800</v>
+        <v>8718</v>
       </c>
       <c r="F91" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G91">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
       <c r="I91">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44227</v>
+        <v>44220</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="D92" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="E92">
-        <v>15000</v>
+        <v>6974</v>
       </c>
       <c r="F92" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="G92">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44227</v>
+        <v>44221</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E93">
-        <v>4980</v>
+        <v>11625</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G93">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44227</v>
+        <v>44221</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="D94" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E94">
-        <v>6790</v>
+        <v>5980</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I94">
         <v>23</v>
@@ -3787,234 +3787,234 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44228</v>
+        <v>44222</v>
       </c>
       <c r="B95" t="s">
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="D95" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="E95">
-        <v>5980</v>
+        <v>6811</v>
       </c>
       <c r="F95" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G95">
+        <v>8</v>
+      </c>
+      <c r="H95">
         <v>3</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>5</v>
-      </c>
-      <c r="I95">
-        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44228</v>
+        <v>44223</v>
       </c>
       <c r="B96" t="s">
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="D96" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="E96">
-        <v>6800</v>
+        <v>12141</v>
       </c>
       <c r="F96" t="s">
         <v>43</v>
       </c>
       <c r="G96">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I96">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44229</v>
+        <v>44223</v>
       </c>
       <c r="B97" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="D97" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E97">
-        <v>7870</v>
+        <v>5980</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G97">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H97">
         <v>6</v>
       </c>
       <c r="I97">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>44229</v>
+        <v>44225</v>
       </c>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="D98" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="E98">
-        <v>1980</v>
+        <v>16800</v>
       </c>
       <c r="F98" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="G98">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H98">
         <v>2</v>
       </c>
       <c r="I98">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44229</v>
+        <v>44226</v>
       </c>
       <c r="B99" t="s">
         <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="D99" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="E99">
-        <v>8454</v>
+        <v>16800</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G99">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="E100">
-        <v>4980</v>
+        <v>5980</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G100">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H100">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I100">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44230</v>
+        <v>44228</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D101" t="s">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="E101">
-        <v>8645</v>
+        <v>6800</v>
       </c>
       <c r="F101" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H101">
         <v>2</v>
       </c>
       <c r="I101">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="D102" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E102">
-        <v>5280</v>
+        <v>8454</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G102">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H102">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -4080,83 +4080,83 @@
         <v>44232</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="D105" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="E105">
-        <v>4980</v>
+        <v>5980</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G105">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H105">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="B106" t="s">
         <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="E106">
-        <v>5980</v>
+        <v>69800</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G106">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I106">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44234</v>
+        <v>44238</v>
       </c>
       <c r="B107" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D107" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E107">
-        <v>2680</v>
+        <v>8796</v>
       </c>
       <c r="F107" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="G107">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I107">
         <v>5</v>
@@ -4164,1075 +4164,1075 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>44236</v>
+        <v>44239</v>
       </c>
       <c r="B108" t="s">
         <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D108" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="E108">
-        <v>69800</v>
+        <v>6280</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G108">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>44236</v>
+        <v>44241</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="E109">
-        <v>5980</v>
+        <v>12735</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G109">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="B110" t="s">
         <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D110" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E110">
-        <v>8796</v>
+        <v>11798</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G110">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H110">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I110">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>44238</v>
+        <v>44243</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="D111" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E111">
-        <v>5280</v>
+        <v>7880</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G111">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H111">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="E112">
-        <v>4980</v>
+        <v>11800</v>
       </c>
       <c r="F112" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="G112">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>44239</v>
+        <v>44245</v>
       </c>
       <c r="B113" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="D113" t="s">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="E113">
-        <v>3980</v>
+        <v>6188</v>
       </c>
       <c r="F113" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G113">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H113">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I113">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>44239</v>
+        <v>44250</v>
       </c>
       <c r="B114" t="s">
         <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="D114" t="s">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="E114">
-        <v>6280</v>
+        <v>7880</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G114">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>44240</v>
+        <v>44250</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="D115" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="E115">
         <v>3980</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G115">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>44241</v>
+        <v>44252</v>
       </c>
       <c r="B116" t="s">
         <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D116" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E116">
-        <v>12735</v>
+        <v>5980</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G116">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H116">
+        <v>7</v>
+      </c>
+      <c r="I116">
         <v>3</v>
-      </c>
-      <c r="I116">
-        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>44241</v>
+        <v>44254</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="D117" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="E117">
-        <v>3217</v>
+        <v>5280</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G117">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H117">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>44242</v>
+        <v>44175</v>
       </c>
       <c r="B118" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C118" t="s">
-        <v>184</v>
+        <v>49</v>
       </c>
       <c r="D118" t="s">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="E118">
-        <v>8287</v>
+        <v>4935</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G118">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H118">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>44242</v>
+        <v>44212</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C119" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="D119" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="E119">
-        <v>11798</v>
+        <v>3980</v>
       </c>
       <c r="F119" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="G119">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I119">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>44242</v>
+        <v>44217</v>
       </c>
       <c r="B120" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C120" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="D120" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="E120">
-        <v>2680</v>
+        <v>3980</v>
       </c>
       <c r="F120" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="G120">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>44243</v>
+        <v>44218</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C121" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="D121" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="E121">
-        <v>7880</v>
+        <v>4071</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="G121">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>44243</v>
+        <v>44219</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C122" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="D122" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="E122">
-        <v>5280</v>
+        <v>5980</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="G122">
+        <v>4</v>
+      </c>
+      <c r="H122">
         <v>3</v>
       </c>
-      <c r="H122">
-        <v>5</v>
-      </c>
       <c r="I122">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>44244</v>
+        <v>44224</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C123" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="D123" t="s">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="E123">
-        <v>11800</v>
+        <v>7200</v>
       </c>
       <c r="F123" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="G123">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>44244</v>
+        <v>44229</v>
       </c>
       <c r="B124" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C124" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="D124" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="E124">
-        <v>2180</v>
+        <v>7870</v>
       </c>
       <c r="F124" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="G124">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I124">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>44244</v>
+        <v>44230</v>
       </c>
       <c r="B125" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C125" t="s">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="D125" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="E125">
-        <v>5980</v>
+        <v>8645</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="G125">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H125">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>44245</v>
+        <v>44239</v>
       </c>
       <c r="B126" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C126" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="D126" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="E126">
-        <v>7200</v>
+        <v>3980</v>
       </c>
       <c r="F126" t="s">
         <v>46</v>
       </c>
       <c r="G126">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>44245</v>
+        <v>44240</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C127" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="D127" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="E127">
-        <v>11652</v>
+        <v>3980</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G127">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H127">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C128" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="D128" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E128">
-        <v>6188</v>
+        <v>3980</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G128">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H128">
         <v>4</v>
       </c>
       <c r="I128">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>44246</v>
+        <v>44249</v>
       </c>
       <c r="B129" t="s">
         <v>48</v>
       </c>
       <c r="C129" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="D129" t="s">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="E129">
-        <v>3980</v>
+        <v>3761</v>
       </c>
       <c r="F129" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G129">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I129">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>44246</v>
+        <v>44255</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C130" t="s">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="D130" t="s">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="E130">
         <v>3980</v>
       </c>
       <c r="F130" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G130">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H130">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>44249</v>
+        <v>44176</v>
       </c>
       <c r="B131" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C131" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="D131" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E131">
-        <v>3761</v>
+        <v>10086</v>
       </c>
       <c r="F131" t="s">
+        <v>59</v>
+      </c>
+      <c r="G131">
+        <v>14</v>
+      </c>
+      <c r="H131">
+        <v>3</v>
+      </c>
+      <c r="I131">
         <v>20</v>
-      </c>
-      <c r="G131">
-        <v>10</v>
-      </c>
-      <c r="H131">
-        <v>5</v>
-      </c>
-      <c r="I131">
-        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>44249</v>
+        <v>44181</v>
       </c>
       <c r="B132" t="s">
         <v>56</v>
       </c>
       <c r="C132" t="s">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="D132" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="E132">
-        <v>2180</v>
+        <v>2980</v>
       </c>
       <c r="F132" t="s">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="G132">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H132">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>44250</v>
+        <v>44185</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C133" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="D133" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="E133">
-        <v>7880</v>
+        <v>2680</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="G133">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I133">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>44250</v>
+        <v>44202</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C134" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E134">
-        <v>3980</v>
+        <v>2980</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G134">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>44250</v>
+        <v>44207</v>
       </c>
       <c r="B135" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C135" t="s">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="D135" t="s">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="E135">
-        <v>4980</v>
+        <v>2680</v>
       </c>
       <c r="F135" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="G135">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I135">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>44252</v>
+        <v>44208</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C136" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="D136" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="E136">
-        <v>3280</v>
+        <v>1980</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="G136">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H136">
         <v>4</v>
       </c>
       <c r="I136">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>44252</v>
+        <v>44211</v>
       </c>
       <c r="B137" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C137" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="D137" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="E137">
-        <v>6280</v>
+        <v>2680</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="G137">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H137">
         <v>7</v>
       </c>
       <c r="I137">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>44252</v>
+        <v>44218</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C138" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="D138" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E138">
-        <v>5980</v>
+        <v>2680</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="G138">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H138">
         <v>7</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>44252</v>
+        <v>44229</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C139" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="E139">
-        <v>6980</v>
+        <v>1980</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="G139">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
       <c r="I139">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>44253</v>
+        <v>44234</v>
       </c>
       <c r="B140" t="s">
         <v>56</v>
       </c>
       <c r="C140" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="D140" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="E140">
         <v>2680</v>
       </c>
       <c r="F140" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="G140">
+        <v>3</v>
+      </c>
+      <c r="H140">
+        <v>4</v>
+      </c>
+      <c r="I140">
         <v>5</v>
-      </c>
-      <c r="H140">
-        <v>1</v>
-      </c>
-      <c r="I140">
-        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>44254</v>
+        <v>44242</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C141" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="E141">
-        <v>5280</v>
+        <v>2680</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="G141">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H141">
         <v>3</v>
       </c>
       <c r="I141">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>44254</v>
+        <v>44244</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="D142" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="E142">
-        <v>8200</v>
+        <v>2180</v>
       </c>
       <c r="F142" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G142">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>44254</v>
+        <v>44249</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="E143">
-        <v>5280</v>
+        <v>2180</v>
       </c>
       <c r="F143" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="G143">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H143">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I143">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B144" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C144" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D144" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E144">
-        <v>5280</v>
+        <v>2680</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="G144">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -5266,118 +5266,118 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>44255</v>
+        <v>44171</v>
       </c>
       <c r="B146" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C146" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D146" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E146">
-        <v>4980</v>
+        <v>7980</v>
       </c>
       <c r="F146" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G146">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I146">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>44255</v>
+        <v>44178</v>
       </c>
       <c r="B147" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147" t="s">
+        <v>61</v>
+      </c>
+      <c r="D147" t="s">
+        <v>62</v>
+      </c>
+      <c r="E147">
+        <v>10234</v>
+      </c>
+      <c r="F147" t="s">
+        <v>63</v>
+      </c>
+      <c r="G147">
+        <v>4</v>
+      </c>
+      <c r="H147">
+        <v>5</v>
+      </c>
+      <c r="I147">
         <v>16</v>
-      </c>
-      <c r="C147" t="s">
-        <v>215</v>
-      </c>
-      <c r="D147" t="s">
-        <v>18</v>
-      </c>
-      <c r="E147">
-        <v>4980</v>
-      </c>
-      <c r="F147" t="s">
-        <v>46</v>
-      </c>
-      <c r="G147">
-        <v>6</v>
-      </c>
-      <c r="H147">
-        <v>2</v>
-      </c>
-      <c r="I147">
-        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>44255</v>
+        <v>44184</v>
       </c>
       <c r="B148" t="s">
         <v>36</v>
       </c>
       <c r="C148" t="s">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c r="D148" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="E148">
         <v>7980</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G148">
         <v>11</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I148">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>44255</v>
+        <v>44245</v>
       </c>
       <c r="B149" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C149" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="D149" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="E149">
-        <v>3980</v>
+        <v>7200</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G149">
+        <v>10</v>
+      </c>
+      <c r="H149">
         <v>3</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>1</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -5385,31 +5385,34 @@
         <v>44255</v>
       </c>
       <c r="B150" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C150" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D150" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E150">
-        <v>3965</v>
+        <v>7980</v>
       </c>
       <c r="F150" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G150">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I150">
+    <sortCondition ref="B1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
